--- a/study2/presentation_for_paper/study2b_gpt_prompt.xlsx
+++ b/study2/presentation_for_paper/study2b_gpt_prompt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/study/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E0C560A-B363-4A7D-BC7F-BB46E33935A2}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{646FE497-BB8F-48B4-9AFD-1868B0B86445}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C437011E-7A4B-457C-A980-6E73C2AE5194}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C437011E-7A4B-457C-A980-6E73C2AE5194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,34 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
-  <si>
-    <t>Personality Types:</t>
-  </si>
-  <si>
-    <t>1. Low Extraversion: Reserved, Quiet, Shy, Introverted, Passive, Withdrawn, Solitary</t>
-  </si>
-  <si>
-    <t>2. High Extraversion: Outgoing, Sociable, Talkative, Energetic, Enthusiastic, Assertive, Gregarious</t>
-  </si>
-  <si>
-    <t>3. Low Agreeableness: Critical, Argumentative, Suspicious, Competitive, Self-centered, Uncooperative, Hostile</t>
-  </si>
-  <si>
-    <t>4. High Agreeableness: Kind, Helpful, Trusting, Forgiving, Compassionate, Cooperative, Altruistic</t>
-  </si>
-  <si>
-    <t>5. Low Conscientiousness: Careless, Disorganized, Lazy, Impulsive, Irresponsible, Procrastinating, Unreliable</t>
-  </si>
-  <si>
-    <t>6. High Conscientiousness: Reliable, Organized, Hardworking, Efficient, Responsible, Disciplined, Perseverant</t>
-  </si>
-  <si>
-    <t>7. Low Openness: Traditional, Conventional, Routine-oriented, Close-minded, Practical, Conservative, Simple</t>
-  </si>
-  <si>
-    <t>8. High Openness: Creative, Imaginative, Curious, Original, Artistic, Open-minded, Intellectual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Imagine you are an AI chatbot acting as an automated service agent on an e-commerce website.</t>
   </si>
@@ -73,9 +46,6 @@
     <t>Please ensure that each response matches the personality traits provided and feels authentic to the user’s characteristics.</t>
   </si>
   <si>
-    <t>Baseline Conversations:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baseline 2. </t>
   </si>
   <si>
@@ -87,26 +57,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"I can't log into my account. Can you help?"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">AI Chatbot: </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Sure! Please check your username and password. If you still can't log in, try resetting your password. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>For further assistance, contact our support team.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Can you help me track my order?”</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Of course! Please provide your order number, and I’ll help you track its status. </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,6 +165,87 @@
   <si>
     <t>Of course! Just give me your order number, and I’ll track it for you. You can also visit the "Track Order" section on our website for updates..</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Low Extraversion: Reserved, Quiet, Shy, Introverted, Passive, Withdrawn, Solitary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Extraversion: Outgoing, Sociable, Talkative, Energetic, Enthusiastic, Assertive, Gregarious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Agreeableness: Critical, Argumentative, Suspicious, Competitive, Self-centered, Uncooperative, Hostile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Agreeableness: Kind, Helpful, Trusting, Forgiving, Compassionate, Cooperative, Altruistic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Conscientiousness: Careless, Disorganized, Lazy, Impulsive, Irresponsible, Procrastinating, Unreliable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Conscientiousness: Reliable, Organized, Hardworking, Efficient, Responsible, Disciplined, Perseverant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Openness: Traditional, Conventional, Routine-oriented, Close-minded, Practical, Conservative, Simple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Openness: Creative, Imaginative, Curious, Original, Artistic, Open-minded, Intellectual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Baseline Conversations:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Personality Types:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I can't log into my account. Can you help?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Can you help me track my order?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sure! Please check your username and password. If you still can't log in, try </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resetting  your password.  For further assistance, contact our support team.</t>
   </si>
 </sst>
 </file>
@@ -236,8 +271,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,16 +291,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,8 +331,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,22 +383,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>194027</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:colOff>502708</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>511527</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89605</xdr:rowOff>
+      <xdr:colOff>585258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27899330-9783-A5A2-A2B7-97035B383F52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FFCC3F-819A-75DA-CB88-0905B874D29F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,18 +421,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="194027" y="141111"/>
-          <a:ext cx="7593542" cy="4993216"/>
+          <a:off x="502708" y="943681"/>
+          <a:ext cx="7358592" cy="4356805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -683,158 +761,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D2A0E-DF40-428C-92BE-0474F62DCFE5}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="0.9140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="2.4140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" style="2" customWidth="1"/>
+    <col min="5" max="12" width="8.6640625" style="2"/>
+    <col min="13" max="13" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" ht="5" customHeight="1"/>
+    <row r="2" spans="2:13" ht="5" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="2:13" ht="5" customHeight="1"/>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:13">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="9" spans="2:13" ht="11" customHeight="1">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="2.5" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13" ht="4" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13" ht="10" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="5" customHeight="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:13" ht="5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21:C28" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -842,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263F17-8363-4A5A-8755-C4C517E64E4D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -858,112 +1061,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14771F7-2C4D-4F6A-A70A-91D1AA8575F3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4"/>
-    <col min="2" max="2" width="34" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="72">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72">
-      <c r="A2" s="4" t="s">
+    <row r="8" spans="1:3" ht="72">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="72">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90">
-      <c r="A4" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
